--- a/data/model/save_counts.xlsx
+++ b/data/model/save_counts.xlsx
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -640,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>7</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>29</v>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>47</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1908,16 +1908,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>18</v>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -2125,16 +2125,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>8</v>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>2</v>
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -2559,16 +2559,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>5</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>33</v>
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -3458,16 +3458,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>11</v>
@@ -3489,16 +3489,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>57</v>
@@ -3520,16 +3520,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>8</v>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -3675,16 +3675,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>11</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
         <v>3</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" t="n">
         <v>11</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>5</v>
       </c>
       <c r="F107" t="n">
         <v>51</v>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
         <v>6</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -4205,13 +4205,13 @@
         <v>2</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
         <v>4</v>
@@ -4298,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>4</v>
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -4574,10 +4574,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4673,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
         <v>3</v>
@@ -4729,16 +4729,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>15</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
         <v>2</v>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4915,16 +4915,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D145" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F145" t="n">
         <v>13</v>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>3</v>
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F148" t="n">
         <v>45</v>
@@ -5045,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -5442,16 +5442,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
         <v>26</v>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F164" t="n">
         <v>16</v>
@@ -5566,10 +5566,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -5628,13 +5628,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -5814,16 +5814,16 @@
         </is>
       </c>
       <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
         <v>4</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5848,13 +5848,13 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
+        <v>8</v>
+      </c>
+      <c r="D175" t="n">
         <v>5</v>
       </c>
-      <c r="D175" t="n">
-        <v>8</v>
-      </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F175" t="n">
         <v>19</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F177" t="n">
         <v>3</v>
@@ -5969,16 +5969,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C179" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" t="n">
         <v>4</v>
       </c>
-      <c r="D179" t="n">
-        <v>7</v>
-      </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F179" t="n">
         <v>29</v>
@@ -6000,10 +6000,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -6158,10 +6158,10 @@
         <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6217,13 +6217,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6341,10 +6341,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -6434,16 +6434,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F194" t="n">
         <v>34</v>
@@ -6465,13 +6465,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
         <v>7</v>
@@ -6651,7 +6651,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -6713,16 +6713,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F203" t="n">
         <v>8</v>
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="D209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -6930,13 +6930,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -7333,16 +7333,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C223" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F223" t="n">
         <v>55</v>
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -7457,13 +7457,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -7801,13 +7801,13 @@
         <v>2</v>
       </c>
       <c r="C238" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D238" t="n">
+        <v>10</v>
+      </c>
+      <c r="E238" t="n">
         <v>14</v>
-      </c>
-      <c r="E238" t="n">
-        <v>3</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C240" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -7953,10 +7953,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>2</v>
@@ -8207,10 +8207,10 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F251" t="n">
         <v>5</v>
@@ -8294,7 +8294,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -8359,13 +8359,13 @@
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D256" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E256" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F256" t="n">
         <v>7</v>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
         <v>1</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F260" t="n">
         <v>4</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C263" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D263" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F263" t="n">
         <v>55</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -8759,16 +8759,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C269" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D269" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E269" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F269" t="n">
         <v>62</v>
@@ -8790,7 +8790,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -8824,13 +8824,13 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F271" t="n">
         <v>1</v>
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
         <v>2</v>
@@ -8945,13 +8945,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
@@ -9038,13 +9038,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="n">
         <v>5</v>
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -9255,16 +9255,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E285" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F285" t="n">
         <v>37</v>
@@ -9320,7 +9320,7 @@
         <v>4</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" t="n">
         <v>7</v>
@@ -9351,13 +9351,13 @@
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F288" t="n">
         <v>5</v>
@@ -9410,13 +9410,13 @@
         </is>
       </c>
       <c r="B290" t="n">
+        <v>3</v>
+      </c>
+      <c r="C290" t="n">
         <v>5</v>
       </c>
-      <c r="C290" t="n">
-        <v>4</v>
-      </c>
       <c r="D290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F297" t="n">
         <v>2</v>
@@ -9689,7 +9689,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>5</v>
       </c>
       <c r="E302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -9912,10 +9912,10 @@
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F306" t="n">
         <v>4</v>
@@ -9968,10 +9968,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D308" t="n">
         <v>3</v>
@@ -10064,10 +10064,10 @@
         <v>2</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -10185,7 +10185,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F317" t="n">
         <v>4</v>
@@ -10309,13 +10309,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
         <v>4</v>
       </c>
       <c r="D319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -10371,13 +10371,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C321" t="n">
         <v>4</v>
       </c>
       <c r="D321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" t="n">
         <v>1</v>
@@ -10498,13 +10498,13 @@
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D325" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E325" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F325" t="n">
         <v>2</v>
@@ -10588,13 +10588,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" t="n">
         <v>1</v>
@@ -10839,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -10870,10 +10870,10 @@
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
@@ -10901,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
+        <v>6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
         <v>4</v>
-      </c>
-      <c r="D338" t="n">
-        <v>0</v>
-      </c>
-      <c r="E338" t="n">
-        <v>3</v>
       </c>
       <c r="F338" t="n">
         <v>3</v>
@@ -10960,16 +10960,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F340" t="n">
         <v>6</v>
@@ -11022,10 +11022,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -11053,13 +11053,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -11115,10 +11115,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D345" t="n">
         <v>3</v>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C348" t="n">
         <v>3</v>
@@ -11239,7 +11239,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -11304,10 +11304,10 @@
         <v>3</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -11394,16 +11394,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F354" t="n">
         <v>4</v>
@@ -11462,10 +11462,10 @@
         <v>3</v>
       </c>
       <c r="D356" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E356" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F356" t="n">
         <v>5</v>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -11580,13 +11580,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>2</v>
       </c>
       <c r="D360" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
         <v>1</v>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -11800,7 +11800,7 @@
         <v>4</v>
       </c>
       <c r="C367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -11890,16 +11890,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D370" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370" t="n">
         <v>3</v>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
         <v>8</v>
@@ -11992,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F373" t="n">
         <v>2</v>
@@ -12014,13 +12014,13 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D374" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -12048,13 +12048,13 @@
         <v>2</v>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D375" t="n">
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F375" t="n">
         <v>2</v>
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D376" t="n">
         <v>3</v>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -12231,10 +12231,10 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D381" t="n">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -12355,16 +12355,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F385" t="n">
         <v>30</v>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>2</v>
       </c>
       <c r="C392" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D392" t="n">
         <v>2</v>
@@ -12637,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D398" t="n">
         <v>3</v>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D399" t="n">
         <v>0</v>
@@ -12851,16 +12851,16 @@
         </is>
       </c>
       <c r="B401" t="n">
+        <v>4</v>
+      </c>
+      <c r="C401" t="n">
         <v>8</v>
       </c>
-      <c r="C401" t="n">
-        <v>5</v>
-      </c>
       <c r="D401" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F401" t="n">
         <v>14</v>
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -12978,13 +12978,13 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
       </c>
       <c r="E405" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F405" t="n">
         <v>1</v>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C409" t="n">
         <v>6</v>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F409" t="n">
         <v>8</v>
@@ -13198,10 +13198,10 @@
         <v>0</v>
       </c>
       <c r="D412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E412" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F412" t="n">
         <v>2</v>
@@ -13257,10 +13257,10 @@
         <v>2</v>
       </c>
       <c r="C414" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D414" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E414" t="n">
         <v>2</v>
@@ -13285,13 +13285,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
       </c>
       <c r="D415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D419" t="n">
         <v>0</v>
@@ -13446,10 +13446,10 @@
         <v>1</v>
       </c>
       <c r="D420" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E420" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F420" t="n">
         <v>3</v>
@@ -13471,13 +13471,13 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E421" t="n">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F426" t="n">
         <v>8</v>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F428" t="n">
         <v>2</v>
@@ -13719,16 +13719,16 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C429" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D429" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E429" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F429" t="n">
         <v>64</v>
@@ -13815,13 +13815,13 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E432" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F432" t="n">
         <v>2</v>
@@ -13843,16 +13843,16 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>2</v>
       </c>
       <c r="D433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F433" t="n">
         <v>2</v>
@@ -13967,7 +13967,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -14001,13 +14001,13 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F438" t="n">
         <v>1</v>
@@ -14063,13 +14063,13 @@
         <v>2</v>
       </c>
       <c r="C440" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D440" t="n">
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F440" t="n">
         <v>4</v>
@@ -14091,16 +14091,16 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D441" t="n">
         <v>2</v>
       </c>
       <c r="E441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F441" t="n">
         <v>7</v>
@@ -14131,7 +14131,7 @@
         <v>5</v>
       </c>
       <c r="E442" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F442" t="n">
         <v>6</v>
@@ -14215,16 +14215,16 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C445" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F445" t="n">
         <v>3</v>
@@ -14280,7 +14280,7 @@
         <v>2</v>
       </c>
       <c r="C447" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D447" t="n">
         <v>1</v>
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F451" t="n">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -14463,10 +14463,10 @@
         </is>
       </c>
       <c r="B453" t="n">
+        <v>3</v>
+      </c>
+      <c r="C453" t="n">
         <v>4</v>
-      </c>
-      <c r="C453" t="n">
-        <v>2</v>
       </c>
       <c r="D453" t="n">
         <v>0</v>
@@ -14500,10 +14500,10 @@
         <v>2</v>
       </c>
       <c r="D454" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F454" t="n">
         <v>9</v>
@@ -14528,10 +14528,10 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D455" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E455" t="n">
         <v>2</v>
@@ -14556,7 +14556,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C456" t="n">
         <v>2</v>
@@ -14680,16 +14680,16 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D460" t="n">
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" t="n">
         <v>6</v>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F461" t="n">
         <v>4</v>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -14773,13 +14773,13 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C463" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="D464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -14835,16 +14835,16 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C465" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D465" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" t="n">
         <v>41</v>
@@ -14931,10 +14931,10 @@
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D468" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E468" t="n">
         <v>2</v>
@@ -14990,7 +14990,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D475" t="n">
         <v>1</v>
@@ -15207,13 +15207,13 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -15269,7 +15269,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -15362,16 +15362,16 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F482" t="n">
         <v>4</v>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F484" t="n">
         <v>8</v>
@@ -15486,7 +15486,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -15548,16 +15548,16 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D488" t="n">
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F488" t="n">
         <v>4</v>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="D490" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E490" t="n">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="D491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E491" t="n">
         <v>2</v>
@@ -15709,7 +15709,7 @@
         <v>3</v>
       </c>
       <c r="D493" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E493" t="n">
         <v>2</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -15830,13 +15830,13 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D497" t="n">
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F497" t="n">
         <v>1</v>
@@ -15889,16 +15889,16 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D499" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E499" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F499" t="n">
         <v>8</v>
@@ -16016,13 +16016,13 @@
         <v>7</v>
       </c>
       <c r="C503" t="n">
+        <v>11</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6</v>
+      </c>
+      <c r="E503" t="n">
         <v>5</v>
-      </c>
-      <c r="D503" t="n">
-        <v>18</v>
-      </c>
-      <c r="E503" t="n">
-        <v>2</v>
       </c>
       <c r="F503" t="n">
         <v>21</v>
@@ -16044,13 +16044,13 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -16261,16 +16261,16 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
       </c>
       <c r="D511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" t="n">
         <v>13</v>
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
         <v>0</v>
@@ -16422,10 +16422,10 @@
         <v>1</v>
       </c>
       <c r="D516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F516" t="n">
         <v>7</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -16509,16 +16509,16 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D519" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F519" t="n">
         <v>74</v>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -16726,16 +16726,16 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C526" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D526" t="n">
         <v>2</v>
       </c>
       <c r="E526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F526" t="n">
         <v>38</v>
@@ -16881,16 +16881,16 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D531" t="n">
         <v>0</v>
       </c>
       <c r="E531" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F531" t="n">
         <v>11</v>
@@ -16943,10 +16943,10 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -16974,7 +16974,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -17039,10 +17039,10 @@
         <v>2</v>
       </c>
       <c r="C536" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
@@ -17070,10 +17070,10 @@
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E537" t="n">
         <v>0</v>
@@ -17098,13 +17098,13 @@
         </is>
       </c>
       <c r="B538" t="n">
+        <v>5</v>
+      </c>
+      <c r="C538" t="n">
+        <v>4</v>
+      </c>
+      <c r="D538" t="n">
         <v>7</v>
-      </c>
-      <c r="C538" t="n">
-        <v>3</v>
-      </c>
-      <c r="D538" t="n">
-        <v>9</v>
       </c>
       <c r="E538" t="n">
         <v>1</v>
@@ -17129,16 +17129,16 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D539" t="n">
         <v>0</v>
       </c>
       <c r="E539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F539" t="n">
         <v>14</v>
@@ -17191,7 +17191,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -17222,7 +17222,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -17256,13 +17256,13 @@
         <v>8</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D543" t="n">
         <v>0</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F543" t="n">
         <v>16</v>
@@ -17287,10 +17287,10 @@
         <v>2</v>
       </c>
       <c r="C544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E544" t="n">
         <v>7</v>
@@ -17315,7 +17315,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -17349,13 +17349,13 @@
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F546" t="n">
         <v>4</v>
@@ -17439,7 +17439,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="D550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -17501,16 +17501,16 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C551" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F551" t="n">
         <v>16</v>
@@ -17566,7 +17566,7 @@
         <v>2</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -17625,10 +17625,10 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D555" t="n">
         <v>0</v>
@@ -17656,7 +17656,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C556" t="n">
         <v>3</v>
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F556" t="n">
         <v>7</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D559" t="n">
         <v>1</v>
@@ -17780,7 +17780,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -17814,13 +17814,13 @@
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F561" t="n">
         <v>3</v>
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F568" t="n">
         <v>1</v>
@@ -18059,7 +18059,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -18090,10 +18090,10 @@
         </is>
       </c>
       <c r="B570" t="n">
+        <v>7</v>
+      </c>
+      <c r="C570" t="n">
         <v>9</v>
-      </c>
-      <c r="C570" t="n">
-        <v>4</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F574" t="n">
         <v>6</v>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -18369,10 +18369,10 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D579" t="n">
         <v>1</v>
@@ -18403,13 +18403,13 @@
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D580" t="n">
         <v>2</v>
       </c>
       <c r="E580" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F580" t="n">
         <v>4</v>
@@ -18462,13 +18462,13 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
         <v>0</v>
       </c>
       <c r="D582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E582" t="n">
         <v>3</v>
@@ -18524,7 +18524,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -18586,10 +18586,10 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D586" t="n">
         <v>0</v>
@@ -18741,13 +18741,13 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
       </c>
       <c r="D591" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E591" t="n">
         <v>1</v>
@@ -18840,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E594" t="n">
         <v>1</v>
@@ -18927,13 +18927,13 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
       </c>
       <c r="D597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E597" t="n">
         <v>1</v>
@@ -18958,7 +18958,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -18998,7 +18998,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F599" t="n">
         <v>6</v>
@@ -19020,7 +19020,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -19054,7 +19054,7 @@
         <v>8</v>
       </c>
       <c r="C601" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D601" t="n">
         <v>1</v>
@@ -19082,10 +19082,10 @@
         </is>
       </c>
       <c r="B602" t="n">
+        <v>4</v>
+      </c>
+      <c r="C602" t="n">
         <v>6</v>
-      </c>
-      <c r="C602" t="n">
-        <v>5</v>
       </c>
       <c r="D602" t="n">
         <v>0</v>
@@ -19206,16 +19206,16 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D606" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E606" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F606" t="n">
         <v>3</v>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F609" t="n">
         <v>9</v>
@@ -19423,7 +19423,7 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>0</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>0</v>
@@ -19578,7 +19578,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -19618,7 +19618,7 @@
         <v>4</v>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F619" t="n">
         <v>4</v>
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C621" t="n">
         <v>0</v>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>0</v>
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D633" t="n">
         <v>0</v>
@@ -20083,7 +20083,7 @@
         <v>4</v>
       </c>
       <c r="E634" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F634" t="n">
         <v>0</v>
@@ -20300,7 +20300,7 @@
         <v>2</v>
       </c>
       <c r="E641" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F641" t="n">
         <v>0</v>
@@ -20325,10 +20325,10 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D642" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E642" t="n">
         <v>0</v>
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D645" t="n">
         <v>0</v>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D648" t="n">
         <v>0</v>
@@ -20576,7 +20576,7 @@
         <v>2</v>
       </c>
       <c r="D650" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E650" t="n">
         <v>2</v>
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D654" t="n">
         <v>2</v>
@@ -20765,7 +20765,7 @@
         <v>4</v>
       </c>
       <c r="E656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F656" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="D657" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E657" t="n">
         <v>0</v>
@@ -20886,10 +20886,10 @@
         <v>2</v>
       </c>
       <c r="D660" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F660" t="n">
         <v>0</v>
@@ -20914,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
@@ -20976,10 +20976,10 @@
         <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D663" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E663" t="n">
         <v>2</v>
@@ -21224,10 +21224,10 @@
         <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E671" t="n">
         <v>0</v>
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D676" t="n">
         <v>0</v>
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D677" t="n">
         <v>0</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E678" t="n">
         <v>1</v>
@@ -21658,13 +21658,13 @@
         <v>0</v>
       </c>
       <c r="C685" t="n">
+        <v>7</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0</v>
+      </c>
+      <c r="E685" t="n">
         <v>5</v>
-      </c>
-      <c r="D685" t="n">
-        <v>0</v>
-      </c>
-      <c r="E685" t="n">
-        <v>4</v>
       </c>
       <c r="F685" t="n">
         <v>0</v>
@@ -21782,13 +21782,13 @@
         <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D689" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E689" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F689" t="n">
         <v>0</v>
@@ -21813,13 +21813,13 @@
         <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D690" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E690" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F690" t="n">
         <v>0</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F696" t="n">
         <v>0</v>
@@ -22033,10 +22033,10 @@
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E697" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F697" t="n">
         <v>0</v>
@@ -22064,10 +22064,10 @@
         <v>2</v>
       </c>
       <c r="D698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E698" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F698" t="n">
         <v>0</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D699" t="n">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>2</v>
       </c>
       <c r="D701" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E701" t="n">
         <v>0</v>
@@ -22185,13 +22185,13 @@
         <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E702" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F702" t="n">
         <v>0</v>
@@ -22216,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D703" t="n">
         <v>1</v>
@@ -22309,10 +22309,10 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D706" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E706" t="n">
         <v>0</v>
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F708" t="n">
         <v>0</v>
@@ -22526,7 +22526,7 @@
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D713" t="n">
         <v>0</v>
@@ -22557,10 +22557,10 @@
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D714" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E714" t="n">
         <v>0</v>
@@ -22650,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
@@ -22687,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F718" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D721" t="n">
         <v>0</v>
@@ -22839,10 +22839,10 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
+        <v>1</v>
+      </c>
+      <c r="E723" t="n">
         <v>4</v>
-      </c>
-      <c r="E723" t="n">
-        <v>3</v>
       </c>
       <c r="F723" t="n">
         <v>0</v>
@@ -22932,7 +22932,7 @@
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E726" t="n">
         <v>3</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D727" t="n">
         <v>0</v>
@@ -22991,13 +22991,13 @@
         <v>0</v>
       </c>
       <c r="C728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E728" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F728" t="n">
         <v>0</v>
@@ -23053,10 +23053,10 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E730" t="n">
         <v>2</v>
@@ -23087,10 +23087,10 @@
         <v>1</v>
       </c>
       <c r="D731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F731" t="n">
         <v>0</v>
@@ -23177,13 +23177,13 @@
         <v>0</v>
       </c>
       <c r="C734" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D734" t="n">
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F734" t="n">
         <v>0</v>
@@ -23208,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="C735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D735" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="C737" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D737" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="C738" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D738" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="C741" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D741" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="C742" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D742" t="n">
         <v>1</v>
@@ -23490,10 +23490,10 @@
         <v>0</v>
       </c>
       <c r="D744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E744" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F744" t="n">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E745" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="C746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D746" t="n">
         <v>0</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="D748" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E748" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="C750" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D750" t="n">
         <v>3</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="C751" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E751" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>3</v>
       </c>
       <c r="D752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F752" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>4</v>
       </c>
       <c r="E754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F754" t="n">
         <v>0</v>
@@ -23859,10 +23859,10 @@
         <v>0</v>
       </c>
       <c r="C756" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D756" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E756" t="n">
         <v>4</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E757" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F757" t="n">
         <v>0</v>
@@ -23921,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="C758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D758" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>5</v>
       </c>
       <c r="D759" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E759" t="n">
         <v>2</v>
@@ -24141,10 +24141,10 @@
         <v>3</v>
       </c>
       <c r="D765" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F765" t="n">
         <v>0</v>
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="C770" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D770" t="n">
         <v>4</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="E781" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F781" t="n">
         <v>0</v>
@@ -24665,7 +24665,7 @@
         <v>0</v>
       </c>
       <c r="C782" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D782" t="n">
         <v>0</v>
@@ -24696,7 +24696,7 @@
         <v>0</v>
       </c>
       <c r="C783" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D783" t="n">
         <v>2</v>
@@ -24789,7 +24789,7 @@
         <v>0</v>
       </c>
       <c r="C786" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D786" t="n">
         <v>0</v>
@@ -24820,13 +24820,13 @@
         <v>0</v>
       </c>
       <c r="C787" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D787" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E787" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F787" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         <v>2</v>
       </c>
       <c r="D790" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E790" t="n">
         <v>1</v>
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="D791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E791" t="n">
         <v>0</v>
@@ -24975,7 +24975,7 @@
         <v>0</v>
       </c>
       <c r="C792" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D792" t="n">
         <v>0</v>
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="C797" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D797" t="n">
         <v>1</v>
@@ -25288,10 +25288,10 @@
         <v>3</v>
       </c>
       <c r="D802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F802" t="n">
         <v>0</v>
@@ -25502,7 +25502,7 @@
         <v>0</v>
       </c>
       <c r="C809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D809" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="C810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D810" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="D815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F815" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>2</v>
       </c>
       <c r="D826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E826" t="n">
         <v>0</v>
@@ -26094,7 +26094,7 @@
         <v>1</v>
       </c>
       <c r="D828" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E828" t="n">
         <v>3</v>
@@ -26153,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="C830" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D830" t="n">
         <v>0</v>
@@ -26339,7 +26339,7 @@
         <v>0</v>
       </c>
       <c r="C836" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D836" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="C838" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D838" t="n">
         <v>1</v>
@@ -26463,13 +26463,13 @@
         <v>0</v>
       </c>
       <c r="C840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D840" t="n">
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F840" t="n">
         <v>0</v>
@@ -26525,7 +26525,7 @@
         <v>0</v>
       </c>
       <c r="C842" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D842" t="n">
         <v>2</v>
@@ -26624,7 +26624,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F845" t="n">
         <v>0</v>
@@ -26835,7 +26835,7 @@
         <v>0</v>
       </c>
       <c r="C852" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D852" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>1</v>
       </c>
       <c r="D858" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E858" t="n">
         <v>0</v>
@@ -27089,7 +27089,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F860" t="n">
         <v>0</v>
@@ -27269,13 +27269,13 @@
         <v>0</v>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D866" t="n">
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F866" t="n">
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
       <c r="C867" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D867" t="n">
         <v>0</v>
@@ -27337,7 +27337,7 @@
         <v>2</v>
       </c>
       <c r="E868" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F868" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="C871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E871" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F871" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E875" t="n">
         <v>0</v>
@@ -27610,13 +27610,13 @@
         <v>0</v>
       </c>
       <c r="C877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D877" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E877" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F877" t="n">
         <v>0</v>
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="D882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E882" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F884" t="n">
         <v>0</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="D891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E891" t="n">
         <v>1</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F894" t="n">
         <v>0</v>
@@ -28202,7 +28202,7 @@
         <v>0</v>
       </c>
       <c r="D896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E896" t="n">
         <v>2</v>
@@ -28236,7 +28236,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F897" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         <v>0</v>
       </c>
       <c r="D900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E900" t="n">
         <v>0</v>
@@ -28357,10 +28357,10 @@
         <v>0</v>
       </c>
       <c r="D901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E901" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F901" t="n">
         <v>0</v>
@@ -28481,7 +28481,7 @@
         <v>0</v>
       </c>
       <c r="D905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E905" t="n">
         <v>0</v>
@@ -28636,7 +28636,7 @@
         <v>0</v>
       </c>
       <c r="D910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E910" t="n">
         <v>0</v>
@@ -28670,7 +28670,7 @@
         <v>3</v>
       </c>
       <c r="E911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F911" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F914" t="n">
         <v>0</v>
@@ -28853,7 +28853,7 @@
         <v>0</v>
       </c>
       <c r="D917" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E917" t="n">
         <v>1</v>
@@ -29135,7 +29135,7 @@
         <v>1</v>
       </c>
       <c r="E926" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F926" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="E930" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F930" t="n">
         <v>0</v>
@@ -29318,7 +29318,7 @@
         <v>0</v>
       </c>
       <c r="D932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E932" t="n">
         <v>0</v>
@@ -29411,10 +29411,10 @@
         <v>0</v>
       </c>
       <c r="D935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E935" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F935" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="D940" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E940" t="n">
         <v>0</v>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E941" t="n">
         <v>2</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="E943" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F943" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F946" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         <v>0</v>
       </c>
       <c r="D956" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E956" t="n">
         <v>1</v>
@@ -30127,7 +30127,7 @@
         <v>3</v>
       </c>
       <c r="E958" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F958" t="n">
         <v>0</v>
@@ -30217,7 +30217,7 @@
         <v>0</v>
       </c>
       <c r="D961" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -30372,7 +30372,7 @@
         <v>0</v>
       </c>
       <c r="D966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E966" t="n">
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>3</v>
       </c>
       <c r="E971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F971" t="n">
         <v>0</v>
@@ -30561,7 +30561,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F972" t="n">
         <v>0</v>
@@ -30744,7 +30744,7 @@
         <v>0</v>
       </c>
       <c r="D978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E978" t="n">
         <v>1</v>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="D979" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E979" t="n">
         <v>1</v>
@@ -30868,10 +30868,10 @@
         <v>0</v>
       </c>
       <c r="D982" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E982" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F982" t="n">
         <v>0</v>
@@ -30902,7 +30902,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F983" t="n">
         <v>0</v>
@@ -30995,7 +30995,7 @@
         <v>1</v>
       </c>
       <c r="E986" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F986" t="n">
         <v>0</v>
@@ -31271,10 +31271,10 @@
         <v>0</v>
       </c>
       <c r="D995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E995" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F995" t="n">
         <v>0</v>
@@ -31364,10 +31364,10 @@
         <v>0</v>
       </c>
       <c r="D998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E998" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F998" t="n">
         <v>0</v>
@@ -31395,7 +31395,7 @@
         <v>0</v>
       </c>
       <c r="D999" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E999" t="n">
         <v>1</v>
@@ -31643,7 +31643,7 @@
         <v>0</v>
       </c>
       <c r="D1007" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1007" t="n">
         <v>2</v>
@@ -31705,7 +31705,7 @@
         <v>0</v>
       </c>
       <c r="D1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1009" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="D1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1013" t="n">
         <v>0</v>
@@ -31894,7 +31894,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1015" t="n">
         <v>0</v>
@@ -31984,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="D1018" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1018" t="n">
         <v>3</v>
@@ -32015,7 +32015,7 @@
         <v>0</v>
       </c>
       <c r="D1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1019" t="n">
         <v>1</v>
@@ -32449,7 +32449,7 @@
         <v>0</v>
       </c>
       <c r="D1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1033" t="n">
         <v>0</v>
@@ -32576,7 +32576,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1037" t="n">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0</v>
       </c>
       <c r="D1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1038" t="n">
         <v>0</v>
@@ -32697,7 +32697,7 @@
         <v>0</v>
       </c>
       <c r="D1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="n">
         <v>0</v>
@@ -32914,7 +32914,7 @@
         <v>0</v>
       </c>
       <c r="D1048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1048" t="n">
         <v>1</v>
@@ -33193,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="D1057" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1057" t="n">
         <v>0</v>
@@ -33410,10 +33410,10 @@
         <v>0</v>
       </c>
       <c r="D1064" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1064" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1064" t="n">
         <v>0</v>
@@ -33534,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="D1068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1068" t="n">
         <v>0</v>
@@ -33658,7 +33658,7 @@
         <v>0</v>
       </c>
       <c r="D1072" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1072" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>2</v>
       </c>
       <c r="E1075" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1075" t="n">
         <v>0</v>
@@ -33940,7 +33940,7 @@
         <v>2</v>
       </c>
       <c r="E1081" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1081" t="n">
         <v>0</v>
@@ -33999,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="D1083" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1083" t="n">
         <v>0</v>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
       <c r="D1085" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1085" t="n">
         <v>0</v>
@@ -34154,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="D1088" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1088" t="n">
         <v>2</v>
@@ -34185,7 +34185,7 @@
         <v>0</v>
       </c>
       <c r="D1089" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1089" t="n">
         <v>6</v>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
       <c r="D1090" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1090" t="n">
         <v>2</v>
@@ -34247,7 +34247,7 @@
         <v>0</v>
       </c>
       <c r="D1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1091" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>2</v>
       </c>
       <c r="E1097" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1097" t="n">
         <v>0</v>
@@ -34464,7 +34464,7 @@
         <v>0</v>
       </c>
       <c r="D1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1098" t="n">
         <v>3</v>
@@ -34560,7 +34560,7 @@
         <v>0</v>
       </c>
       <c r="E1101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1101" t="n">
         <v>0</v>
@@ -34746,7 +34746,7 @@
         <v>0</v>
       </c>
       <c r="E1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1107" t="n">
         <v>0</v>
@@ -34901,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1112" t="n">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="E1115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1115" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1120" t="n">
         <v>0</v>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1126" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="E1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1139" t="n">
         <v>0</v>
@@ -35769,7 +35769,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1140" t="n">
         <v>0</v>
@@ -35800,7 +35800,7 @@
         <v>0</v>
       </c>
       <c r="E1141" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F1141" t="n">
         <v>0</v>
@@ -35831,7 +35831,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1142" t="n">
         <v>0</v>
@@ -35862,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="E1143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1143" t="n">
         <v>0</v>
@@ -36017,7 +36017,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1148" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1164" t="n">
         <v>0</v>
@@ -36783,16 +36783,16 @@
         </is>
       </c>
       <c r="B1173" t="n">
-        <v>1.147736976942784</v>
+        <v>0.8146883005977796</v>
       </c>
       <c r="C1173" t="n">
-        <v>0.8497011101622545</v>
+        <v>1.217762596071734</v>
       </c>
       <c r="D1173" t="n">
-        <v>1.229718189581554</v>
+        <v>0.874466268146883</v>
       </c>
       <c r="E1173" t="n">
-        <v>0.8078565328778822</v>
+        <v>1.154568744662682</v>
       </c>
       <c r="F1173" t="n">
         <v>3.523484201537148</v>
@@ -36814,16 +36814,16 @@
         </is>
       </c>
       <c r="B1174" t="n">
-        <v>1344</v>
+        <v>954</v>
       </c>
       <c r="C1174" t="n">
-        <v>995</v>
+        <v>1426</v>
       </c>
       <c r="D1174" t="n">
-        <v>1440</v>
+        <v>1024</v>
       </c>
       <c r="E1174" t="n">
-        <v>946</v>
+        <v>1352</v>
       </c>
       <c r="F1174" t="n">
         <v>4126</v>

--- a/data/model/save_counts.xlsx
+++ b/data/model/save_counts.xlsx
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
@@ -736,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1108,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
@@ -1328,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>7</v>
@@ -1604,10 +1604,10 @@
         <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>29</v>
@@ -1666,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>47</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1914,10 +1914,10 @@
         <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>18</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>11</v>
@@ -2131,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>6</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>6</v>
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>4</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>4</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>33</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -3464,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
+        <v>11</v>
+      </c>
+      <c r="E98" t="n">
         <v>6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7</v>
       </c>
       <c r="F98" t="n">
         <v>11</v>
@@ -3495,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>57</v>
@@ -3526,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
         <v>8</v>
@@ -3588,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>6</v>
@@ -3681,10 +3681,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>11</v>
@@ -3743,10 +3743,10 @@
         <v>13</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
         <v>51</v>
@@ -3836,10 +3836,10 @@
         <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>6</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -4211,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>4</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>4</v>
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
         <v>9</v>
@@ -4673,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>15</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>2</v>
@@ -4921,10 +4921,10 @@
         <v>16</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F145" t="n">
         <v>13</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F148" t="n">
         <v>45</v>
@@ -5045,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -5448,10 +5448,10 @@
         <v>3</v>
       </c>
       <c r="D162" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E162" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>26</v>
@@ -5510,10 +5510,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
         <v>16</v>
@@ -5634,10 +5634,10 @@
         <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>6</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5851,10 +5851,10 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
+        <v>8</v>
+      </c>
+      <c r="E175" t="n">
         <v>5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>13</v>
       </c>
       <c r="F175" t="n">
         <v>19</v>
@@ -5916,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>3</v>
@@ -5975,10 +5975,10 @@
         <v>5</v>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>29</v>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -6440,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
         <v>34</v>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -6719,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F203" t="n">
         <v>8</v>
@@ -6905,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F211" t="n">
         <v>14</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -7339,10 +7339,10 @@
         <v>20</v>
       </c>
       <c r="D223" t="n">
+        <v>19</v>
+      </c>
+      <c r="E223" t="n">
         <v>8</v>
-      </c>
-      <c r="E223" t="n">
-        <v>25</v>
       </c>
       <c r="F223" t="n">
         <v>55</v>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>2</v>
@@ -7804,10 +7804,10 @@
         <v>17</v>
       </c>
       <c r="D238" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E238" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F238" t="n">
         <v>9</v>
@@ -7866,7 +7866,7 @@
         <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F243" t="n">
         <v>1</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -8207,10 +8207,10 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>5</v>
@@ -8362,10 +8362,10 @@
         <v>10</v>
       </c>
       <c r="D256" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E256" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F256" t="n">
         <v>7</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
         <v>4</v>
@@ -8579,10 +8579,10 @@
         <v>14</v>
       </c>
       <c r="D263" t="n">
+        <v>10</v>
+      </c>
+      <c r="E263" t="n">
         <v>5</v>
-      </c>
-      <c r="E263" t="n">
-        <v>16</v>
       </c>
       <c r="F263" t="n">
         <v>55</v>
@@ -8641,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="D265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
@@ -8672,10 +8672,10 @@
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E266" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F266" t="n">
         <v>3</v>
@@ -8765,10 +8765,10 @@
         <v>19</v>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E269" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F269" t="n">
         <v>62</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273" t="n">
         <v>2</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277" t="n">
         <v>3</v>
@@ -9044,7 +9044,7 @@
         <v>2</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>5</v>
@@ -9261,10 +9261,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E285" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F285" t="n">
         <v>37</v>
@@ -9292,10 +9292,10 @@
         <v>1</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F286" t="n">
         <v>3</v>
@@ -9357,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F288" t="n">
         <v>5</v>
@@ -9416,7 +9416,7 @@
         <v>5</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F297" t="n">
         <v>2</v>
@@ -9791,7 +9791,7 @@
         <v>5</v>
       </c>
       <c r="E302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -9912,10 +9912,10 @@
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E306" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F306" t="n">
         <v>4</v>
@@ -9974,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="D308" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="D311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -10160,10 +10160,10 @@
         <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
         <v>4</v>
@@ -10315,7 +10315,7 @@
         <v>4</v>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -10377,7 +10377,7 @@
         <v>4</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324" t="n">
         <v>1</v>
@@ -10501,10 +10501,10 @@
         <v>16</v>
       </c>
       <c r="D325" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F325" t="n">
         <v>2</v>
@@ -10594,7 +10594,7 @@
         <v>5</v>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" t="n">
         <v>1</v>
@@ -10873,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
@@ -10904,10 +10904,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F338" t="n">
         <v>3</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F340" t="n">
         <v>6</v>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>3</v>
       </c>
       <c r="E345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F345" t="n">
         <v>9</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
         <v>8</v>
@@ -11307,7 +11307,7 @@
         <v>2</v>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -11400,10 +11400,10 @@
         <v>0</v>
       </c>
       <c r="D354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E354" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F354" t="n">
         <v>4</v>
@@ -11462,10 +11462,10 @@
         <v>3</v>
       </c>
       <c r="D356" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E356" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F356" t="n">
         <v>5</v>
@@ -11586,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="D360" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E360" t="n">
         <v>1</v>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="D364" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -11806,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F367" t="n">
         <v>11</v>
@@ -11896,10 +11896,10 @@
         <v>3</v>
       </c>
       <c r="D370" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F370" t="n">
         <v>3</v>
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F371" t="n">
         <v>8</v>
@@ -11992,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F373" t="n">
         <v>2</v>
@@ -12020,7 +12020,7 @@
         <v>4</v>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
         <v>2</v>
@@ -12147,7 +12147,7 @@
         <v>2</v>
       </c>
       <c r="E378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F378" t="n">
         <v>1</v>
@@ -12361,10 +12361,10 @@
         <v>4</v>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E385" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F385" t="n">
         <v>30</v>
@@ -12857,10 +12857,10 @@
         <v>8</v>
       </c>
       <c r="D401" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F401" t="n">
         <v>14</v>
@@ -12950,7 +12950,7 @@
         <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="E405" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F405" t="n">
         <v>1</v>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F409" t="n">
         <v>8</v>
@@ -13198,10 +13198,10 @@
         <v>0</v>
       </c>
       <c r="D412" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E412" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F412" t="n">
         <v>2</v>
@@ -13260,7 +13260,7 @@
         <v>9</v>
       </c>
       <c r="D414" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E414" t="n">
         <v>2</v>
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="D415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -13446,10 +13446,10 @@
         <v>1</v>
       </c>
       <c r="D420" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E420" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F420" t="n">
         <v>3</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E421" t="n">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F426" t="n">
         <v>8</v>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428" t="n">
         <v>2</v>
@@ -13725,10 +13725,10 @@
         <v>17</v>
       </c>
       <c r="D429" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E429" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F429" t="n">
         <v>64</v>
@@ -13818,10 +13818,10 @@
         <v>3</v>
       </c>
       <c r="D432" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F432" t="n">
         <v>2</v>
@@ -13849,10 +13849,10 @@
         <v>2</v>
       </c>
       <c r="D433" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F433" t="n">
         <v>2</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="D435" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E435" t="n">
         <v>0</v>
@@ -14004,10 +14004,10 @@
         <v>7</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F438" t="n">
         <v>1</v>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F440" t="n">
         <v>4</v>
@@ -14097,10 +14097,10 @@
         <v>2</v>
       </c>
       <c r="D441" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F441" t="n">
         <v>7</v>
@@ -14131,7 +14131,7 @@
         <v>5</v>
       </c>
       <c r="E442" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F442" t="n">
         <v>6</v>
@@ -14221,10 +14221,10 @@
         <v>4</v>
       </c>
       <c r="D445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445" t="n">
         <v>3</v>
@@ -14283,10 +14283,10 @@
         <v>3</v>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E447" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F447" t="n">
         <v>5</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F451" t="n">
         <v>1</v>
@@ -14500,10 +14500,10 @@
         <v>2</v>
       </c>
       <c r="D454" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F454" t="n">
         <v>9</v>
@@ -14531,7 +14531,7 @@
         <v>17</v>
       </c>
       <c r="D455" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E455" t="n">
         <v>2</v>
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="E460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F460" t="n">
         <v>6</v>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F461" t="n">
         <v>4</v>
@@ -14779,7 +14779,7 @@
         <v>16</v>
       </c>
       <c r="D463" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -14810,10 +14810,10 @@
         <v>1</v>
       </c>
       <c r="D464" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464" t="n">
         <v>23</v>
@@ -14841,10 +14841,10 @@
         <v>20</v>
       </c>
       <c r="D465" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="n">
         <v>41</v>
@@ -14934,7 +14934,7 @@
         <v>3</v>
       </c>
       <c r="D468" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E468" t="n">
         <v>2</v>
@@ -15213,7 +15213,7 @@
         <v>6</v>
       </c>
       <c r="D477" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
         <v>4</v>
@@ -15430,10 +15430,10 @@
         <v>1</v>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F484" t="n">
         <v>8</v>
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F488" t="n">
         <v>4</v>
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="D490" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E490" t="n">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E491" t="n">
         <v>2</v>
@@ -15709,10 +15709,10 @@
         <v>3</v>
       </c>
       <c r="D493" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F493" t="n">
         <v>16</v>
@@ -15833,10 +15833,10 @@
         <v>8</v>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F497" t="n">
         <v>1</v>
@@ -15895,10 +15895,10 @@
         <v>10</v>
       </c>
       <c r="D499" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E499" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F499" t="n">
         <v>8</v>
@@ -16019,10 +16019,10 @@
         <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E503" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F503" t="n">
         <v>21</v>
@@ -16050,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="D504" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -16236,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="D510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E510" t="n">
         <v>0</v>
@@ -16267,10 +16267,10 @@
         <v>0</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F511" t="n">
         <v>13</v>
@@ -16422,10 +16422,10 @@
         <v>1</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F516" t="n">
         <v>7</v>
@@ -16515,10 +16515,10 @@
         <v>3</v>
       </c>
       <c r="D519" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F519" t="n">
         <v>74</v>
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -16735,7 +16735,7 @@
         <v>2</v>
       </c>
       <c r="E526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F526" t="n">
         <v>38</v>
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="E531" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F531" t="n">
         <v>11</v>
@@ -17042,7 +17042,7 @@
         <v>5</v>
       </c>
       <c r="D536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
@@ -17073,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="D537" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E537" t="n">
         <v>0</v>
@@ -17104,7 +17104,7 @@
         <v>4</v>
       </c>
       <c r="D538" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E538" t="n">
         <v>1</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="E539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F539" t="n">
         <v>14</v>
@@ -17262,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="E543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F543" t="n">
         <v>16</v>
@@ -17290,10 +17290,10 @@
         <v>3</v>
       </c>
       <c r="D544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E544" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F544" t="n">
         <v>5</v>
@@ -17352,10 +17352,10 @@
         <v>4</v>
       </c>
       <c r="D546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F546" t="n">
         <v>4</v>
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="D550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="E551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
         <v>16</v>
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F556" t="n">
         <v>7</v>
@@ -17758,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F559" t="n">
         <v>1</v>
@@ -17817,10 +17817,10 @@
         <v>4</v>
       </c>
       <c r="D561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F561" t="n">
         <v>3</v>
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="E563" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F563" t="n">
         <v>1</v>
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F568" t="n">
         <v>1</v>
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F569" t="n">
         <v>12</v>
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="E573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F573" t="n">
         <v>1</v>
@@ -18223,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F574" t="n">
         <v>6</v>
@@ -18409,7 +18409,7 @@
         <v>2</v>
       </c>
       <c r="E580" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F580" t="n">
         <v>4</v>
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582" t="n">
         <v>3</v>
@@ -18626,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="E587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F587" t="n">
         <v>2</v>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="D591" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E591" t="n">
         <v>1</v>
@@ -18809,7 +18809,7 @@
         <v>3</v>
       </c>
       <c r="D593" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E593" t="n">
         <v>0</v>
@@ -18840,10 +18840,10 @@
         <v>1</v>
       </c>
       <c r="D594" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594" t="n">
         <v>4</v>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="D597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E597" t="n">
         <v>1</v>
@@ -18995,10 +18995,10 @@
         <v>2</v>
       </c>
       <c r="D599" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E599" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F599" t="n">
         <v>6</v>
@@ -19212,10 +19212,10 @@
         <v>11</v>
       </c>
       <c r="D606" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E606" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F606" t="n">
         <v>3</v>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F609" t="n">
         <v>9</v>
@@ -19398,7 +19398,7 @@
         <v>2</v>
       </c>
       <c r="D612" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E612" t="n">
         <v>0</v>
@@ -19463,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="E614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F614" t="n">
         <v>2</v>
@@ -19618,7 +19618,7 @@
         <v>4</v>
       </c>
       <c r="E619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F619" t="n">
         <v>4</v>
@@ -20021,7 +20021,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F632" t="n">
         <v>0</v>
@@ -20052,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="E633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F633" t="n">
         <v>0</v>
@@ -20083,7 +20083,7 @@
         <v>4</v>
       </c>
       <c r="E634" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F634" t="n">
         <v>0</v>
@@ -20235,7 +20235,7 @@
         <v>11</v>
       </c>
       <c r="D639" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
@@ -20297,10 +20297,10 @@
         <v>1</v>
       </c>
       <c r="D641" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E641" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F641" t="n">
         <v>0</v>
@@ -20328,7 +20328,7 @@
         <v>12</v>
       </c>
       <c r="D642" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E642" t="n">
         <v>0</v>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="E648" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F648" t="n">
         <v>0</v>
@@ -20576,7 +20576,7 @@
         <v>2</v>
       </c>
       <c r="D650" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E650" t="n">
         <v>2</v>
@@ -20765,7 +20765,7 @@
         <v>4</v>
       </c>
       <c r="E656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F656" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="D657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E657" t="n">
         <v>0</v>
@@ -20886,10 +20886,10 @@
         <v>2</v>
       </c>
       <c r="D660" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F660" t="n">
         <v>0</v>
@@ -20979,7 +20979,7 @@
         <v>2</v>
       </c>
       <c r="D663" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E663" t="n">
         <v>2</v>
@@ -21227,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="D671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E671" t="n">
         <v>0</v>
@@ -21444,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E678" t="n">
         <v>1</v>
@@ -21568,7 +21568,7 @@
         <v>1</v>
       </c>
       <c r="D682" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E682" t="n">
         <v>0</v>
@@ -21664,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="E685" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F685" t="n">
         <v>0</v>
@@ -21785,10 +21785,10 @@
         <v>12</v>
       </c>
       <c r="D689" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E689" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F689" t="n">
         <v>0</v>
@@ -21816,10 +21816,10 @@
         <v>7</v>
       </c>
       <c r="D690" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E690" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F690" t="n">
         <v>0</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="E696" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F696" t="n">
         <v>0</v>
@@ -22033,10 +22033,10 @@
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E697" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F697" t="n">
         <v>0</v>
@@ -22064,10 +22064,10 @@
         <v>2</v>
       </c>
       <c r="D698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E698" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F698" t="n">
         <v>0</v>
@@ -22157,7 +22157,7 @@
         <v>2</v>
       </c>
       <c r="D701" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E701" t="n">
         <v>0</v>
@@ -22188,10 +22188,10 @@
         <v>1</v>
       </c>
       <c r="D702" t="n">
+        <v>5</v>
+      </c>
+      <c r="E702" t="n">
         <v>4</v>
-      </c>
-      <c r="E702" t="n">
-        <v>11</v>
       </c>
       <c r="F702" t="n">
         <v>0</v>
@@ -22312,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="D706" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E706" t="n">
         <v>0</v>
@@ -22377,7 +22377,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F708" t="n">
         <v>0</v>
@@ -22532,7 +22532,7 @@
         <v>0</v>
       </c>
       <c r="E713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F713" t="n">
         <v>0</v>
@@ -22560,7 +22560,7 @@
         <v>2</v>
       </c>
       <c r="D714" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E714" t="n">
         <v>0</v>
@@ -22687,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F718" t="n">
         <v>0</v>
@@ -22780,7 +22780,7 @@
         <v>0</v>
       </c>
       <c r="E721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F721" t="n">
         <v>0</v>
@@ -22839,10 +22839,10 @@
         <v>1</v>
       </c>
       <c r="D723" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E723" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F723" t="n">
         <v>0</v>
@@ -22870,7 +22870,7 @@
         <v>1</v>
       </c>
       <c r="D724" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E724" t="n">
         <v>0</v>
@@ -22932,7 +22932,7 @@
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E726" t="n">
         <v>3</v>
@@ -22994,10 +22994,10 @@
         <v>1</v>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F728" t="n">
         <v>0</v>
@@ -23025,7 +23025,7 @@
         <v>1</v>
       </c>
       <c r="D729" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E729" t="n">
         <v>0</v>
@@ -23056,7 +23056,7 @@
         <v>4</v>
       </c>
       <c r="D730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E730" t="n">
         <v>2</v>
@@ -23087,10 +23087,10 @@
         <v>1</v>
       </c>
       <c r="D731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F731" t="n">
         <v>0</v>
@@ -23152,7 +23152,7 @@
         <v>2</v>
       </c>
       <c r="E733" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F733" t="n">
         <v>0</v>
@@ -23183,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F734" t="n">
         <v>0</v>
@@ -23211,7 +23211,7 @@
         <v>2</v>
       </c>
       <c r="D735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E735" t="n">
         <v>0</v>
@@ -23369,7 +23369,7 @@
         <v>1</v>
       </c>
       <c r="E740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F740" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
       <c r="E741" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F741" t="n">
         <v>0</v>
@@ -23490,10 +23490,10 @@
         <v>0</v>
       </c>
       <c r="D744" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E744" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F744" t="n">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E745" t="n">
         <v>0</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="D748" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E748" t="n">
         <v>0</v>
@@ -23648,7 +23648,7 @@
         <v>0</v>
       </c>
       <c r="E749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F749" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="D751" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E751" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>3</v>
       </c>
       <c r="D752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F752" t="n">
         <v>0</v>
@@ -23800,10 +23800,10 @@
         <v>1</v>
       </c>
       <c r="D754" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F754" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>1</v>
       </c>
       <c r="D755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E755" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>7</v>
       </c>
       <c r="D756" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E756" t="n">
         <v>4</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E757" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F757" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>5</v>
       </c>
       <c r="D759" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E759" t="n">
         <v>2</v>
@@ -24141,10 +24141,10 @@
         <v>3</v>
       </c>
       <c r="D765" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F765" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>3</v>
       </c>
       <c r="E767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F767" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="E781" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F781" t="n">
         <v>0</v>
@@ -24823,10 +24823,10 @@
         <v>8</v>
       </c>
       <c r="D787" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E787" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F787" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         <v>2</v>
       </c>
       <c r="D790" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F790" t="n">
         <v>0</v>
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="D791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E791" t="n">
         <v>0</v>
@@ -25102,7 +25102,7 @@
         <v>1</v>
       </c>
       <c r="D796" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E796" t="n">
         <v>0</v>
@@ -25136,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="E797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F797" t="n">
         <v>0</v>
@@ -25288,10 +25288,10 @@
         <v>3</v>
       </c>
       <c r="D802" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F802" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F815" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>2</v>
       </c>
       <c r="D826" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E826" t="n">
         <v>0</v>
@@ -26094,7 +26094,7 @@
         <v>1</v>
       </c>
       <c r="D828" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E828" t="n">
         <v>3</v>
@@ -26280,7 +26280,7 @@
         <v>1</v>
       </c>
       <c r="D834" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E834" t="n">
         <v>0</v>
@@ -26469,7 +26469,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F840" t="n">
         <v>0</v>
@@ -26531,7 +26531,7 @@
         <v>2</v>
       </c>
       <c r="E842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F842" t="n">
         <v>0</v>
@@ -26624,7 +26624,7 @@
         <v>1</v>
       </c>
       <c r="E845" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F845" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="E855" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F855" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>1</v>
       </c>
       <c r="D858" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E858" t="n">
         <v>0</v>
@@ -27089,7 +27089,7 @@
         <v>1</v>
       </c>
       <c r="E860" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F860" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="E866" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F866" t="n">
         <v>0</v>
@@ -27337,7 +27337,7 @@
         <v>2</v>
       </c>
       <c r="E868" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F868" t="n">
         <v>0</v>
@@ -27365,7 +27365,7 @@
         <v>2</v>
       </c>
       <c r="D869" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E869" t="n">
         <v>2</v>
@@ -27427,10 +27427,10 @@
         <v>2</v>
       </c>
       <c r="D871" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F871" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>3</v>
       </c>
       <c r="D875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E875" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         <v>1</v>
       </c>
       <c r="D877" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E877" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F877" t="n">
         <v>0</v>
@@ -27647,7 +27647,7 @@
         <v>3</v>
       </c>
       <c r="E878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F878" t="n">
         <v>0</v>
@@ -27768,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="D882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E882" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F884" t="n">
         <v>0</v>
@@ -27923,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="D887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E887" t="n">
         <v>0</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="D891" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E891" t="n">
         <v>1</v>
@@ -28078,7 +28078,7 @@
         <v>0</v>
       </c>
       <c r="D892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E892" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="E894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F894" t="n">
         <v>0</v>
@@ -28202,10 +28202,10 @@
         <v>0</v>
       </c>
       <c r="D896" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F896" t="n">
         <v>0</v>
@@ -28236,7 +28236,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F897" t="n">
         <v>0</v>
@@ -28264,7 +28264,7 @@
         <v>0</v>
       </c>
       <c r="D898" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E898" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>2</v>
       </c>
       <c r="E899" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F899" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         <v>0</v>
       </c>
       <c r="D900" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E900" t="n">
         <v>0</v>
@@ -28357,10 +28357,10 @@
         <v>0</v>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F901" t="n">
         <v>0</v>
@@ -28419,10 +28419,10 @@
         <v>0</v>
       </c>
       <c r="D903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F903" t="n">
         <v>0</v>
@@ -28481,7 +28481,7 @@
         <v>0</v>
       </c>
       <c r="D905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E905" t="n">
         <v>0</v>
@@ -28636,7 +28636,7 @@
         <v>0</v>
       </c>
       <c r="D910" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E910" t="n">
         <v>0</v>
@@ -28670,7 +28670,7 @@
         <v>3</v>
       </c>
       <c r="E911" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F911" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="E914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F914" t="n">
         <v>0</v>
@@ -28791,7 +28791,7 @@
         <v>0</v>
       </c>
       <c r="D915" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E915" t="n">
         <v>1</v>
@@ -28853,7 +28853,7 @@
         <v>0</v>
       </c>
       <c r="D917" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E917" t="n">
         <v>1</v>
@@ -28915,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="D919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E919" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="D920" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E920" t="n">
         <v>1</v>
@@ -29135,7 +29135,7 @@
         <v>1</v>
       </c>
       <c r="E926" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F926" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="E930" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F930" t="n">
         <v>0</v>
@@ -29318,7 +29318,7 @@
         <v>0</v>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E932" t="n">
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>2</v>
       </c>
       <c r="E933" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F933" t="n">
         <v>0</v>
@@ -29411,10 +29411,10 @@
         <v>0</v>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F935" t="n">
         <v>0</v>
@@ -29507,7 +29507,7 @@
         <v>8</v>
       </c>
       <c r="E938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F938" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="D940" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E940" t="n">
         <v>0</v>
@@ -29597,10 +29597,10 @@
         <v>0</v>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E941" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F941" t="n">
         <v>0</v>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
       <c r="E943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F943" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>3</v>
       </c>
       <c r="E944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F944" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E946" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F946" t="n">
         <v>0</v>
@@ -29814,10 +29814,10 @@
         <v>0</v>
       </c>
       <c r="D948" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E948" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F948" t="n">
         <v>0</v>
@@ -29848,7 +29848,7 @@
         <v>2</v>
       </c>
       <c r="E949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F949" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         <v>0</v>
       </c>
       <c r="D956" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E956" t="n">
         <v>1</v>
@@ -30127,7 +30127,7 @@
         <v>3</v>
       </c>
       <c r="E958" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F958" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="E960" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F960" t="n">
         <v>0</v>
@@ -30217,10 +30217,10 @@
         <v>0</v>
       </c>
       <c r="D961" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E961" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F961" t="n">
         <v>0</v>
@@ -30248,7 +30248,7 @@
         <v>0</v>
       </c>
       <c r="D962" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E962" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>1</v>
       </c>
       <c r="E965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F965" t="n">
         <v>0</v>
@@ -30372,7 +30372,7 @@
         <v>0</v>
       </c>
       <c r="D966" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E966" t="n">
         <v>0</v>
@@ -30406,7 +30406,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F967" t="n">
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>3</v>
       </c>
       <c r="E971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F971" t="n">
         <v>0</v>
@@ -30561,7 +30561,7 @@
         <v>0</v>
       </c>
       <c r="E972" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F972" t="n">
         <v>0</v>
@@ -30589,7 +30589,7 @@
         <v>0</v>
       </c>
       <c r="D973" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E973" t="n">
         <v>0</v>
@@ -30744,7 +30744,7 @@
         <v>0</v>
       </c>
       <c r="D978" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E978" t="n">
         <v>1</v>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="D979" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E979" t="n">
         <v>1</v>
@@ -30868,10 +30868,10 @@
         <v>0</v>
       </c>
       <c r="D982" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E982" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F982" t="n">
         <v>0</v>
@@ -30902,7 +30902,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F983" t="n">
         <v>0</v>
@@ -30995,7 +30995,7 @@
         <v>1</v>
       </c>
       <c r="E986" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F986" t="n">
         <v>0</v>
@@ -31271,10 +31271,10 @@
         <v>0</v>
       </c>
       <c r="D995" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E995" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F995" t="n">
         <v>0</v>
@@ -31364,10 +31364,10 @@
         <v>0</v>
       </c>
       <c r="D998" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E998" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F998" t="n">
         <v>0</v>
@@ -31395,7 +31395,7 @@
         <v>0</v>
       </c>
       <c r="D999" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E999" t="n">
         <v>1</v>
@@ -31460,7 +31460,7 @@
         <v>1</v>
       </c>
       <c r="E1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1001" t="n">
         <v>0</v>
@@ -31550,7 +31550,7 @@
         <v>0</v>
       </c>
       <c r="D1004" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1004" t="n">
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>0</v>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1006" t="n">
         <v>0</v>
@@ -31643,7 +31643,7 @@
         <v>0</v>
       </c>
       <c r="D1007" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1007" t="n">
         <v>2</v>
@@ -31705,7 +31705,7 @@
         <v>0</v>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1009" t="n">
         <v>0</v>
@@ -31767,7 +31767,7 @@
         <v>0</v>
       </c>
       <c r="D1011" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1011" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="D1013" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1013" t="n">
         <v>0</v>
@@ -31894,7 +31894,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1015" t="n">
         <v>0</v>
@@ -31984,10 +31984,10 @@
         <v>0</v>
       </c>
       <c r="D1018" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1018" t="n">
         <v>0</v>
@@ -32015,7 +32015,7 @@
         <v>0</v>
       </c>
       <c r="D1019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1019" t="n">
         <v>1</v>
@@ -32201,7 +32201,7 @@
         <v>0</v>
       </c>
       <c r="D1025" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1025" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>3</v>
       </c>
       <c r="E1031" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1031" t="n">
         <v>0</v>
@@ -32449,7 +32449,7 @@
         <v>0</v>
       </c>
       <c r="D1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1033" t="n">
         <v>0</v>
@@ -32576,7 +32576,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1037" t="n">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0</v>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1038" t="n">
         <v>0</v>
@@ -32697,7 +32697,7 @@
         <v>0</v>
       </c>
       <c r="D1041" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1041" t="n">
         <v>0</v>
@@ -32886,7 +32886,7 @@
         <v>2</v>
       </c>
       <c r="E1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1047" t="n">
         <v>0</v>
@@ -32914,7 +32914,7 @@
         <v>0</v>
       </c>
       <c r="D1048" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1048" t="n">
         <v>1</v>
@@ -32948,7 +32948,7 @@
         <v>0</v>
       </c>
       <c r="E1049" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1049" t="n">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         <v>1</v>
       </c>
       <c r="E1055" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1055" t="n">
         <v>0</v>
@@ -33193,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="D1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1057" t="n">
         <v>0</v>
@@ -33410,10 +33410,10 @@
         <v>0</v>
       </c>
       <c r="D1064" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1064" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1064" t="n">
         <v>0</v>
@@ -33534,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="D1068" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1068" t="n">
         <v>0</v>
@@ -33658,7 +33658,7 @@
         <v>0</v>
       </c>
       <c r="D1072" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1072" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>2</v>
       </c>
       <c r="E1075" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1075" t="n">
         <v>0</v>
@@ -33909,7 +33909,7 @@
         <v>1</v>
       </c>
       <c r="E1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1080" t="n">
         <v>0</v>
@@ -33940,7 +33940,7 @@
         <v>2</v>
       </c>
       <c r="E1081" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1081" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>0</v>
       </c>
       <c r="D1082" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1082" t="n">
         <v>0</v>
@@ -33999,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="D1083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1083" t="n">
         <v>0</v>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
       <c r="D1085" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1085" t="n">
         <v>0</v>
@@ -34154,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="D1088" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1088" t="n">
         <v>2</v>
@@ -34185,7 +34185,7 @@
         <v>0</v>
       </c>
       <c r="D1089" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1089" t="n">
         <v>6</v>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
       <c r="D1090" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1090" t="n">
         <v>2</v>
@@ -34247,7 +34247,7 @@
         <v>0</v>
       </c>
       <c r="D1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1091" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>2</v>
       </c>
       <c r="E1097" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1097" t="n">
         <v>0</v>
@@ -34464,10 +34464,10 @@
         <v>0</v>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1098" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1098" t="n">
         <v>0</v>
@@ -34560,7 +34560,7 @@
         <v>0</v>
       </c>
       <c r="E1101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1101" t="n">
         <v>0</v>
@@ -34746,7 +34746,7 @@
         <v>0</v>
       </c>
       <c r="E1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1107" t="n">
         <v>0</v>
@@ -34839,7 +34839,7 @@
         <v>0</v>
       </c>
       <c r="E1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1110" t="n">
         <v>0</v>
@@ -34901,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="E1112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1112" t="n">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="E1115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1115" t="n">
         <v>0</v>
@@ -35087,7 +35087,7 @@
         <v>0</v>
       </c>
       <c r="E1118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1118" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1120" t="n">
         <v>0</v>
@@ -35273,7 +35273,7 @@
         <v>0</v>
       </c>
       <c r="E1124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1124" t="n">
         <v>0</v>
@@ -35335,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="E1126" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1126" t="n">
         <v>0</v>
@@ -35397,7 +35397,7 @@
         <v>0</v>
       </c>
       <c r="E1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1128" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="E1129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1129" t="n">
         <v>0</v>
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
       <c r="E1130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1130" t="n">
         <v>0</v>
@@ -35490,7 +35490,7 @@
         <v>0</v>
       </c>
       <c r="E1131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1131" t="n">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>0</v>
       </c>
       <c r="E1133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1133" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="E1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1139" t="n">
         <v>0</v>
@@ -35769,7 +35769,7 @@
         <v>0</v>
       </c>
       <c r="E1140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1140" t="n">
         <v>0</v>
@@ -35800,7 +35800,7 @@
         <v>0</v>
       </c>
       <c r="E1141" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F1141" t="n">
         <v>0</v>
@@ -35831,7 +35831,7 @@
         <v>0</v>
       </c>
       <c r="E1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1142" t="n">
         <v>0</v>
@@ -35862,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="E1143" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1143" t="n">
         <v>0</v>
@@ -36017,7 +36017,7 @@
         <v>0</v>
       </c>
       <c r="E1148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1148" t="n">
         <v>0</v>
@@ -36110,7 +36110,7 @@
         <v>0</v>
       </c>
       <c r="E1151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1151" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="E1164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1164" t="n">
         <v>0</v>
@@ -36637,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="E1168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1168" t="n">
         <v>0</v>
@@ -36789,10 +36789,10 @@
         <v>1.217762596071734</v>
       </c>
       <c r="D1173" t="n">
-        <v>0.874466268146883</v>
+        <v>1.309137489325363</v>
       </c>
       <c r="E1173" t="n">
-        <v>1.154568744662682</v>
+        <v>0.6712211784799317</v>
       </c>
       <c r="F1173" t="n">
         <v>3.523484201537148</v>
@@ -36820,10 +36820,10 @@
         <v>1426</v>
       </c>
       <c r="D1174" t="n">
-        <v>1024</v>
+        <v>1533</v>
       </c>
       <c r="E1174" t="n">
-        <v>1352</v>
+        <v>786</v>
       </c>
       <c r="F1174" t="n">
         <v>4126</v>
